--- a/agg-data.xlsx
+++ b/agg-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3bcebca9b7bc1f6/Work/IRCC/Feb 22 - EXCOM Presentation - AR Survey/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abrarnasir/Desktop/EXCOM/AR-Survey-2.0-EXCOM-Deck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="404" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E359B820-4A51-D648-A6FF-29A9715257F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE8DAD3-A5A7-9F4F-A66A-690C4AF144F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1_A1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,11 @@
     <sheet name="Q23" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Q1_A1!$A$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Q1_A1!$A$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Q1_A1!$B$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Q1_A1!$B$6:$G$6</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Q1_A1!$B$7:$G$7</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">Q1_A1!$A$2:$A$7</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">Q1_A1!$B$1</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">Q1_A1!$B$2:$B$7</definedName>
@@ -29,51 +34,46 @@
     <definedName name="_xlchart.v1.17" hidden="1">Q1_A1!$C$2:$C$7</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">Q1_A1!$D$1</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">Q1_A1!$D$2:$D$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Q1_A1!$A$4</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">Q1_A1!$E$1</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">Q1_A1!$E$2:$E$7</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">Q1_A1!$F$1</definedName>
     <definedName name="_xlchart.v1.23" hidden="1">Q1_A1!$F$2:$F$7</definedName>
     <definedName name="_xlchart.v1.24" hidden="1">Q1_A1!$G$1</definedName>
     <definedName name="_xlchart.v1.25" hidden="1">Q1_A1!$G$2:$G$7</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Q1_A1!$A$2</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Q1_A1!$A$3</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Q1_A1!$A$4</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Q1_A1!$A$5</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Q1_A1!$A$6</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Q1_A1!$A$7</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Q1_A1!$B$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Q1_A1!$B$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Q1_A1!$B$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Q1_A1!$B$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Q1_A1!$B$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Q1_A1!$B$6:$G$6</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Q1_A1!$B$7:$G$7</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Q1_A1!$A$2</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Q1_A1!$A$3</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Q1_A1!$B$5:$G$5</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Q1_A1!$B$6:$G$6</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Q1_A1!$B$7:$G$7</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Q1_A1!$A$4</definedName>
-    <definedName name="_xlchart.v2.26" hidden="1">Q1_A1!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v2.27" hidden="1">Q1_A1!$B$1</definedName>
-    <definedName name="_xlchart.v2.28" hidden="1">Q1_A1!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v2.29" hidden="1">Q1_A1!$C$1</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Q1_A1!$A$5</definedName>
-    <definedName name="_xlchart.v2.30" hidden="1">Q1_A1!$C$2:$C$7</definedName>
-    <definedName name="_xlchart.v2.31" hidden="1">Q1_A1!$D$1</definedName>
-    <definedName name="_xlchart.v2.32" hidden="1">Q1_A1!$D$2:$D$7</definedName>
-    <definedName name="_xlchart.v2.33" hidden="1">Q1_A1!$E$1</definedName>
-    <definedName name="_xlchart.v2.34" hidden="1">Q1_A1!$E$2:$E$7</definedName>
-    <definedName name="_xlchart.v2.35" hidden="1">Q1_A1!$F$1</definedName>
-    <definedName name="_xlchart.v2.36" hidden="1">Q1_A1!$F$2:$F$7</definedName>
-    <definedName name="_xlchart.v2.37" hidden="1">Q1_A1!$G$1</definedName>
-    <definedName name="_xlchart.v2.38" hidden="1">Q1_A1!$G$2:$G$7</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Q1_A1!$A$6</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Q1_A1!$A$7</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Q1_A1!$B$1:$G$1</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Q1_A1!$B$2:$G$2</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Q1_A1!$B$3:$G$3</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Q1_A1!$B$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Q1_A1!$A$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Q1_A1!$A$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Q1_A1!$A$7</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Q1_A1!$B$1:$G$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Q1_A1!$B$2:$G$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Q1_A1!$B$3:$G$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Q1_A1!$B$4:$G$4</definedName>
+    <definedName name="_xlchart.v2.26" hidden="1">Q1_A1!$A$2</definedName>
+    <definedName name="_xlchart.v2.27" hidden="1">Q1_A1!$A$3</definedName>
+    <definedName name="_xlchart.v2.28" hidden="1">Q1_A1!$A$4</definedName>
+    <definedName name="_xlchart.v2.29" hidden="1">Q1_A1!$A$5</definedName>
+    <definedName name="_xlchart.v2.30" hidden="1">Q1_A1!$A$6</definedName>
+    <definedName name="_xlchart.v2.31" hidden="1">Q1_A1!$A$7</definedName>
+    <definedName name="_xlchart.v2.32" hidden="1">Q1_A1!$B$1:$G$1</definedName>
+    <definedName name="_xlchart.v2.33" hidden="1">Q1_A1!$B$2:$G$2</definedName>
+    <definedName name="_xlchart.v2.34" hidden="1">Q1_A1!$B$3:$G$3</definedName>
+    <definedName name="_xlchart.v2.35" hidden="1">Q1_A1!$B$4:$G$4</definedName>
+    <definedName name="_xlchart.v2.36" hidden="1">Q1_A1!$B$5:$G$5</definedName>
+    <definedName name="_xlchart.v2.37" hidden="1">Q1_A1!$B$6:$G$6</definedName>
+    <definedName name="_xlchart.v2.38" hidden="1">Q1_A1!$B$7:$G$7</definedName>
+    <definedName name="_xlchart.v2.39" hidden="1">Q1_A1!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v2.40" hidden="1">Q1_A1!$B$1</definedName>
+    <definedName name="_xlchart.v2.41" hidden="1">Q1_A1!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v2.42" hidden="1">Q1_A1!$C$1</definedName>
+    <definedName name="_xlchart.v2.43" hidden="1">Q1_A1!$C$2:$C$7</definedName>
+    <definedName name="_xlchart.v2.44" hidden="1">Q1_A1!$D$1</definedName>
+    <definedName name="_xlchart.v2.45" hidden="1">Q1_A1!$D$2:$D$7</definedName>
+    <definedName name="_xlchart.v2.46" hidden="1">Q1_A1!$E$1</definedName>
+    <definedName name="_xlchart.v2.47" hidden="1">Q1_A1!$E$2:$E$7</definedName>
+    <definedName name="_xlchart.v2.48" hidden="1">Q1_A1!$F$1</definedName>
+    <definedName name="_xlchart.v2.49" hidden="1">Q1_A1!$F$2:$F$7</definedName>
+    <definedName name="_xlchart.v2.50" hidden="1">Q1_A1!$G$1</definedName>
+    <definedName name="_xlchart.v2.51" hidden="1">Q1_A1!$G$2:$G$7</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -569,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,9 +611,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1008,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1254,7 +1251,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="10">
@@ -1277,48 +1274,48 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>38.21</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>2.44</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>3.25</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>4.07</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>43.09</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>8.94</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>45.24</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>2.9</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>7.18</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>2.08</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <v>31.51</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>11.09</v>
       </c>
     </row>
@@ -1346,25 +1343,25 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>38.89</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>2.78</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>8.33</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>11.11</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>25</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>13.89</v>
       </c>
     </row>
@@ -1622,7 +1619,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="10">
@@ -1645,48 +1642,48 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>7.44</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>38.020000000000003</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>0.83</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>3.31</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>36.36</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>14.05</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>7.5</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>45.9</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>2.9</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>2.46</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <v>26.54</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>14.69</v>
       </c>
     </row>
@@ -1714,25 +1711,25 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>22.22</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>41.67</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>0</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>16.670000000000002</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>13.89</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>5.56</v>
       </c>
     </row>
@@ -1991,7 +1988,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="10">
@@ -2014,48 +2011,48 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>10.57</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>30.08</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>7.32</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>37.4</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>9.76</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>4.88</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>10.33</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>35.14</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>3.97</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>26.76</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <v>16.059999999999999</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>7.75</v>
       </c>
     </row>
@@ -2083,25 +2080,25 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>16.670000000000002</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>27.78</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>16.670000000000002</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>19.440000000000001</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>11.11</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>8.33</v>
       </c>
     </row>
@@ -2360,7 +2357,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="10">
@@ -2383,48 +2380,48 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>17.8</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>26.27</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>7.63</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>16.95</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>22.88</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>8.4700000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>14.31</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>36.380000000000003</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>5.93</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>11.38</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <v>26.23</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>5.79</v>
       </c>
     </row>
@@ -2452,25 +2449,25 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>6.06</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>39.39</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>12.12</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>18.18</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>21.21</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>3.03</v>
       </c>
     </row>
@@ -2541,40 +2538,40 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <v>14.53</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>8.73</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>12.26</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>10.66</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>14.43</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>13.72</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="19">
         <v>3.23</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="19">
         <v>4.8600000000000003</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="19">
         <v>9.3699999999999992</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="19">
         <v>0.34</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="20">
         <v>7.88</v>
       </c>
     </row>
@@ -2731,78 +2728,78 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>15.94</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>8.11</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>14.69</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>11.05</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>14.69</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>13.15</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>3.22</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <v>6.71</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <v>6.99</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <v>0.42</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="17">
         <v>5.03</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>20.9</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>9.98</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>18.46</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>9.7899999999999991</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <v>16.95</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>11.68</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>2.82</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>5.65</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <v>1.32</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <v>0.19</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="20">
         <v>2.2599999999999998</v>
       </c>
     </row>
@@ -2825,7 +2822,7 @@
       <c r="F9" s="10">
         <v>11.21</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>11.52</v>
       </c>
       <c r="H9" s="10">
@@ -2863,7 +2860,7 @@
       <c r="F10" s="10">
         <v>15.74</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>9.91</v>
       </c>
       <c r="H10" s="10">
@@ -2883,7 +2880,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="10">
@@ -2901,7 +2898,7 @@
       <c r="F11" s="10">
         <v>14.46</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>12.05</v>
       </c>
       <c r="H11" s="10">
@@ -2921,40 +2918,40 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>16.79</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>6.93</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>16.79</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>11.68</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>12.77</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="23">
         <v>10.220000000000001</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>3.28</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>6.93</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>5.84</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>0.36</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="17">
         <v>8.39</v>
       </c>
     </row>
@@ -2977,7 +2974,7 @@
       <c r="F13" s="6">
         <v>15.99</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>12.18</v>
       </c>
       <c r="H13" s="6">
@@ -3015,7 +3012,7 @@
       <c r="F14" s="10">
         <v>12.04</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>13.09</v>
       </c>
       <c r="H14" s="10">
@@ -3035,40 +3032,40 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>10.59</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>11.76</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>16.47</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>8.24</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>14.12</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="23">
         <v>16.47</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="16">
         <v>7.06</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>5.88</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="16">
         <v>5.88</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="16">
         <v>0</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="17">
         <v>3.53</v>
       </c>
     </row>
@@ -3088,7 +3085,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="24.33203125" style="28" customWidth="1"/>
+    <col min="2" max="7" width="24.33203125" style="27" customWidth="1"/>
     <col min="8" max="8" width="10" style="8" customWidth="1"/>
     <col min="9" max="16384" width="8.83203125" style="8"/>
   </cols>
@@ -3097,22 +3094,22 @@
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3120,22 +3117,22 @@
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="29">
         <v>0.37509999999999999</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="29">
         <v>0.35199999999999998</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <v>0.33310000000000001</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="29">
         <v>0.30259999999999998</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="29">
         <v>0.29609999999999997</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="30">
         <v>0.30869999999999997</v>
       </c>
     </row>
@@ -3143,22 +3140,22 @@
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="31">
         <v>0.38150000000000001</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <v>0.3306</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <v>0.31640000000000001</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <v>0.30299999999999999</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <v>0.29930000000000001</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="32">
         <v>0.27239999999999998</v>
       </c>
     </row>
@@ -3166,22 +3163,22 @@
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>0.2341</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <v>0.17069999999999999</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <v>0.18049999999999999</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <v>0.2195</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <v>0.15759999999999999</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="32">
         <v>0.1366</v>
       </c>
     </row>
@@ -3189,22 +3186,22 @@
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>0.60660000000000003</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>0.47539999999999999</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>0.47539999999999999</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>0.50819999999999999</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>0.50819999999999999</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="32">
         <v>0.50819999999999999</v>
       </c>
     </row>
@@ -3212,22 +3209,22 @@
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>0.32329999999999998</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>0.25750000000000001</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>0.25750000000000001</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <v>0.24890000000000001</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <v>0.24030000000000001</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="32">
         <v>0.26179999999999998</v>
       </c>
     </row>
@@ -3235,22 +3232,22 @@
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>0.37540000000000001</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>0.34389999999999998</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <v>0.31230000000000002</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="33">
         <v>0.24909999999999999</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="33">
         <v>0.2596</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="34">
         <v>0.2772</v>
       </c>
     </row>
@@ -3258,22 +3255,22 @@
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>0.2341</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>0.17069999999999999</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <v>0.18049999999999999</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <v>0.2195</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>0.15759999999999999</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <v>0.1366</v>
       </c>
     </row>
@@ -3281,22 +3278,22 @@
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>0.42959999999999998</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>0.40739999999999998</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>0.4</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>0.33329999999999999</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>0.3407</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="32">
         <v>0.35560000000000003</v>
       </c>
     </row>
@@ -3304,91 +3301,91 @@
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <v>0.43609999999999999</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="31">
         <v>0.39100000000000001</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>0.34589999999999999</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="31">
         <v>0.31819999999999998</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <v>0.33079999999999998</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="32">
         <v>0.2782</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>0.4098</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <v>0.377</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <v>0.36070000000000002</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <v>0.32790000000000002</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="31">
         <v>0.36070000000000002</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="32">
         <v>0.3115</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>0.37140000000000001</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>0.3286</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="35">
         <v>0.28170000000000001</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="35">
         <v>0.2394</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="35">
         <v>0.28170000000000001</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="36">
         <v>0.22539999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="37">
         <v>0.43219999999999997</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="37">
         <v>0.39610000000000001</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>0.38100000000000001</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="37">
         <v>0.34939999999999999</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="37">
         <v>0.34489999999999998</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="38">
         <v>0.34489999999999998</v>
       </c>
     </row>
@@ -3396,111 +3393,111 @@
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <v>0.36380000000000001</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="31">
         <v>0.32979999999999998</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="31">
         <v>0.318</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <v>0.2989</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="31">
         <v>0.28570000000000001</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="32">
         <v>0.28539999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>0.37140000000000001</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>0.3286</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="35">
         <v>0.28170000000000001</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <v>0.2394</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="35">
         <v>0.28170000000000001</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="36">
         <v>0.22539999999999999</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
+      <c r="C24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="C25" s="28"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E26" s="29"/>
+      <c r="E26" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3511,14 +3508,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84B7A9F-D6D1-004F-B0F7-C203B266360F}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
+    <sheetView zoomScale="124" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="24.33203125" style="28" customWidth="1"/>
+    <col min="2" max="5" width="24.33203125" style="27" customWidth="1"/>
     <col min="6" max="6" width="10" style="8" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="8"/>
   </cols>
@@ -3527,16 +3524,16 @@
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3544,16 +3541,16 @@
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="29">
         <v>0.74480000000000002</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="29">
         <v>0.74109999999999998</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <v>0.65149999999999997</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <v>0.54769999999999996</v>
       </c>
     </row>
@@ -3561,16 +3558,16 @@
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="31">
         <v>0.61260000000000003</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <v>0.57689999999999997</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <v>0.50860000000000005</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>0.4138</v>
       </c>
     </row>
@@ -3578,16 +3575,16 @@
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>0.4914</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <v>0.4269</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <v>0.32169999999999999</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>0.2424</v>
       </c>
     </row>
@@ -3595,16 +3592,16 @@
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>0.70909999999999995</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>0.69810000000000005</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>0.64810000000000001</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>0.4546</v>
       </c>
     </row>
@@ -3612,16 +3609,16 @@
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>0.61719999999999997</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>0.56579999999999997</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>0.46310000000000001</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>0.4627</v>
       </c>
     </row>
@@ -3629,16 +3626,16 @@
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>0.62839999999999996</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>0.59599999999999997</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <v>0.53010000000000002</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="34">
         <v>0.45119999999999999</v>
       </c>
     </row>
@@ -3646,16 +3643,16 @@
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>0.4914</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>0.4269</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <v>0.32169999999999999</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <v>0.2424</v>
       </c>
     </row>
@@ -3663,16 +3660,16 @@
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>0.67769999999999997</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>0.62719999999999998</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>0.57140000000000002</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>0.46150000000000002</v>
       </c>
     </row>
@@ -3680,67 +3677,67 @@
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <v>0.5333</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="31">
         <v>0.56299999999999994</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>0.5</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <v>0.4052</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>0.7</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <v>0.70189999999999997</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <v>0.61680000000000001</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <v>0.57150000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>0.73140000000000005</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>0.60599999999999998</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="35">
         <v>0.60940000000000005</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="36">
         <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="37">
         <v>0.7157</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="37">
         <v>0.72060000000000002</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>0.6169</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="38">
         <v>0.54920000000000002</v>
       </c>
     </row>
@@ -3748,108 +3745,108 @@
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <v>0.67190000000000005</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="31">
         <v>0.65969999999999995</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="31">
         <v>0.58679999999999999</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <v>0.48520000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>0.73140000000000005</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>0.60599999999999998</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="35">
         <v>0.60940000000000005</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="36">
         <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
+      <c r="C24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="C25" s="28"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E26" s="29"/>
+      <c r="E26" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
